--- a/Activite.xlsx
+++ b/Activite.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>Genre</t>
-  </si>
-  <si>
-    <t>azer</t>
-  </si>
-  <si>
-    <t>2019-01-01 00:00</t>
-  </si>
-  <si>
-    <t>zeaed</t>
   </si>
   <si>
     <t>activte 1</t>
@@ -48,6 +39,21 @@
   </si>
   <si>
     <t>Épreuve de course à pied de grand fond, sur une distance de 42,195 kilomètres. Un coureur de marathon; le vainqueur du marathon. Les courses de fond comprennent les épreuves de fond court, 5 000 et 10 000 mètres, et de grand fond allant jusqu'au marathon</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>2024-05-09 00:00</t>
+  </si>
+  <si>
+    <t>séjourner au même endroit sous une tente, une caravane ou encore dans un camping-car. - Tabarka Tunis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Musicothérapie </t>
+  </si>
+  <si>
+    <t>Peindre, dessiner, ou tout simplement gribouiller, peut avoir un impact positif sur votre mental.</t>
   </si>
 </sst>
 </file>
@@ -98,14 +104,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.61328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.06640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.8515625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="235.42578125" customWidth="true" bestFit="true"/>
   </cols>
@@ -126,7 +132,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -140,30 +146,44 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
